--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2012.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2012.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>85.8507332014</v>
+        <v>858507.332014</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>974.3474928756</v>
+        <v>9743474.928756</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>189.7946568807</v>
+        <v>1897946.568807</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>59.0800768281</v>
+        <v>590800.768281</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>421.5378634015</v>
+        <v>4215378.634015</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>32.9823038214</v>
+        <v>329823.038214</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>44.5839227864</v>
+        <v>445839.227864</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>129.6588546919</v>
+        <v>1296588.546919</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>115.2464866557</v>
+        <v>1152464.866557</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>62.0635541434</v>
+        <v>620635.541434</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>73.5467923465</v>
+        <v>735467.923465</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>191.4445130536</v>
+        <v>1914445.130536</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>56.8206114108</v>
+        <v>568206.114108</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>46.2966119752</v>
+        <v>462966.119752</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>514.9286705038</v>
+        <v>5149286.705038</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5279349165</v>
+        <v>575279.349165</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>397.8887947538</v>
+        <v>3978887.947538</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>217.6970629713</v>
+        <v>2176970.629713</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>31.4191297281</v>
+        <v>314191.297281</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>43.6530752195</v>
+        <v>436530.752195</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>6437.0682977038</v>
+        <v>64370682.977038</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>182.5538421408</v>
+        <v>1825538.421408</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>111.260563956</v>
+        <v>1112605.63956</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>172.5710819905</v>
+        <v>1725710.819905</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>408.5672881116</v>
+        <v>4085672.881116</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>140.6275996288</v>
+        <v>1406275.996288</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>204.7914969407</v>
+        <v>2047914.969407</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>3.7319228745</v>
+        <v>37319.228745</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>60.1533775382</v>
+        <v>601533.775382</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>80.5864450361</v>
+        <v>805864.450361</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>293.3985146663</v>
+        <v>2933985.146663</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>226.4447109561</v>
+        <v>2264447.109561</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
